--- a/data/raubmilben_data.xlsx
+++ b/data/raubmilben_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E26743-3B53-464B-B01C-E8C6DFC33723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4A557F-D481-CE41-8087-EE138BEBC8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="2420" windowWidth="28240" windowHeight="17240" xr2:uid="{9AA3E445-8E10-CD4B-BB92-ED273505246B}"/>
+    <workbookView xWindow="19980" yWindow="2320" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{9AA3E445-8E10-CD4B-BB92-ED273505246B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="mite" sheetId="1" r:id="rId1"/>
+    <sheet name="trespe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>sorte</t>
   </si>
@@ -54,6 +55,12 @@
   </si>
   <si>
     <t>block_5</t>
+  </si>
+  <si>
+    <t>variante</t>
+  </si>
+  <si>
+    <t>crtl</t>
   </si>
 </sst>
 </file>
@@ -413,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4F2C79-2078-A24E-8858-BC8C376CFC01}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,4 +630,104 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21526C2-7C92-134F-9208-9D23AE36124D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>4.8</v>
+      </c>
+      <c r="E2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4.8</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10.4</v>
+      </c>
+      <c r="C4">
+        <v>2.4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D5">
+        <v>7.2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/raubmilben_data.xlsx
+++ b/data/raubmilben_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4A557F-D481-CE41-8087-EE138BEBC8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D069E45-7695-6A4A-A10C-FEFCCD2B8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="2320" windowWidth="28240" windowHeight="17240" activeTab="1" xr2:uid="{9AA3E445-8E10-CD4B-BB92-ED273505246B}"/>
+    <workbookView xWindow="10160" yWindow="2320" windowWidth="28240" windowHeight="17240" xr2:uid="{9AA3E445-8E10-CD4B-BB92-ED273505246B}"/>
   </bookViews>
   <sheets>
     <sheet name="mite" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>sorte</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>crtl</t>
+  </si>
+  <si>
+    <t>ctrl</t>
   </si>
 </sst>
 </file>
@@ -420,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4F2C79-2078-A24E-8858-BC8C376CFC01}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,8 +610,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>46</v>
@@ -636,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21526C2-7C92-134F-9208-9D23AE36124D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
